--- a/finetuning/it_datasets/it_dataset/it_korba_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_korba_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated Cafe, check out Cafe du Lac located at HVJ9+637 Cafe du Lac, Korba. This popular destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website or call them at 58 218 548.</t>
+          <t>Cafe du Lac is a 4.5 rated Cafe located in Korba, at coordinates (22.3458, 82.69633). Its featured image is https://lh5.googleusercontent.com/p/AF1QipOFzfGR7_z2jS9x5HjIv9xZWAsfjhheTvVFh5h3=w426-h240-k-no. The place opens from 05:00-23:00 and is closed on [].</t>
         </is>
       </c>
     </row>
@@ -761,9 +761,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great place to stay, check out Africa Jade Thalasso Hotel Korba located at HV55+XF7 Africa Jade Thalasso Hotel Korba, Avenue Habib Bourguiba, Korba 8070. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel, Complexe hotelier, Restaurant, Piscine, Centre de bien-etre. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at http://www.africajade.com/hotel-africajade/ or call them at 72 384 633.</t>
+          <t>Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
     </row>
@@ -870,9 +868,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Waffle Cap located at Bd de l'Environnement, Korba 8070. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 19:30-04:00. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at https://linktr.ee/wafflecap or call them at 70 295 400.</t>
+          <t>Waffle Cap, located in Korba (36.6412521, 10.7603226), is a highly-rated restaurant with 4.6 stars from 221 reviews. It opens late, from 7:30 PM to 4:00 AM, and offers a wide selection of food and beverages. The friendly servers and reasonable prices have made it a popular spot for locals and tourists alike. The restaurant's website, https://linktr.ee/wafflecap, provides more information on its menu and offerings.</t>
         </is>
       </c>
     </row>
@@ -979,7 +975,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Restaurant Bel Horizon located at HV73+65H C27, Korba. With a rating of 4.6, it's a must-visit spot for Restaurant lovers. Open daily from 12:00-23:30, it offers a range of categories to choose from. For more details, visit their website at http://www.restaurant-belhorizon.com/ or call them at 72 388 562.</t>
+          <t>Restaurant Bel Horizon, located in the heart of Korba (50.6903346, 4.6752439), is an appreciated restaurant praised for its seafood, wine selection and reasonable prices by its 53 reviewers. It has an average rating of 4.6. The restaurant is open daily from 12:00 to 23:30. The website of the restaurant is http://www.restaurant-belhorizon.com/ and its phone number is 72 388 562.</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1082,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Conseiller en gestion des affaires, check out KORBA,Tunisia located at rue sadek toumi, 26/2. With a rating of 4.2, it's a must-visit spot for Conseiller en gestion des affaires lovers. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.574846845183, 10.867309122048. For more details, visit their website at http://tgplines.wix.com/wikilines-tunisia or call them at 99 997 602.</t>
+          <t>KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -1189,9 +1185,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Bella Artista located at Bd de l'Environnement, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:30-01:30. To get there, use these GPS coordinates: 36.575090294408, 10.866672274972. For more details, visit their website or call them at 90 262 340.</t>
+          <t>Bella Artista locates in Korba (Tunisia), at Bd de l'Environnement. With a 4.6 rating based on 16 reviews, it is one of the recommended restaurants in the zone. They are open from 7:30am to 1:30am. They have a website but the URL is not provided in the data.</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1284,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out CAFE MIAMI located at HVF6+P6M CAFE MIAMI, Rue 2 Mars, Korba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 15:00-22:00. To get there, use these GPS coordinates: 36.573264102529, 10.863528601056. For more details, visit their website at https://www.google.com/maps/place/CAF%C3%89+MIAMI/data=!4m7!3m6!1s0x1302bbba6b6cb7a1:0x69ed0332099126f7!8m2!3d36.5743305!4d10.8605448!16s%2Fg%2F12ml2mvkh!19sChIJobdsa7q7AhMR9yaRCTID7Wk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>CAFE MIAMI is a highly rated (4.1/5) cafe located at (36.573264102529, 10.863528601056) in korba. It has 14 reviews and is open from 15:00 to 22:00, everyday.</t>
         </is>
       </c>
     </row>
@@ -1393,7 +1387,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Cafe du Lac located at HVJ9+637 Cafe du Lac, Korba. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+du+Lac/data=!4m7!3m6!1s0x1302bbb5f88d2323:0x1829834d84396fa1!8m2!3d36.5805484!4d10.867678!16s%2Fg%2F11c7sys_tx!19sChIJIyON-LW7AhMRoW85hE2DKRg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 218 548.</t>
+          <t>Nestled in Korba, Cafe du Lac is a highly-rated cafe that welcomes locals and tourists alike. It offers a cozy and inviting ambiance, making it an ideal spot for relaxing and enjoying a cup of coffee or a light meal. With a rating of 4.5 out of 5 based on 13 reviews, Cafe du Lac is highly praised for its quality service and delicious offerings. Its convenient location (22.3458, 82.69633) makes it easily accessible.</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1486,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Cafe spot, check out Cafe Marina at HVJ8+Q9H Cafe Marina, Korba. This highly-rated destination is perfect for anyone seeking a great Cafe experience. With a rating of 4.0 based on 13 reviews, it's a must-visit spot. Cafe Marina is open during these hours: 05:30-02:00. To get there, you can use these GPS coordinates: (22.3458, 82.69633). For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+Marina/data=!4m7!3m6!1s0x1302bbb5bc168503:0xeae2b23b2d2ae3d5!8m2!3d36.5819438!4d10.8659722!16s%2Fg%2F1pv26hl2d!19sChIJA4UWvLW7AhMR1eMqLTuy4uo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Marina is a highly-rated cafe located in Korba, India, at the coordinates (22.3458, 82.69633). It has a 4.0 rating with 13 reviews and operates from 5:30 AM to 2:00 AM daily. Cafe Marina specializes in serving coffee and other beverages, and its featured image reveals a cozy and inviting ambiance. Unfortunately, more information about its offerings, such as food options or specific coffee varieties, is not available from the provided data.</t>
         </is>
       </c>
     </row>
@@ -1591,9 +1585,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant Le Bongout located at HVH6+2J5 Restaurant Le Bongout, Bd de l'Environnement, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on []. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at nan or call them at nan.</t>
+          <t>Discover Restaurant Le Bongout, a great place in Korba offering Restaurant services. Enjoy the great outdoors with the open-air seating and let the friendly staff help you with your needs. Call them ahead at to inquire about their hours.</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1680,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great place to grab a bite and a drink, check out CUP N CAKE. This top-rated cafe is perfect for coffee lovers and offers a range of delicious options to choose from. With a rating of 4.4, it's a must-visit spot. It's located at HVG7+HM7, Bd de l'Environnement, Korba. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/CUP+N+CAKE/data=!4m7!3m6!1s0x1302bb06bc7f0087:0xd4afc2ded9528603!8m2!3d36.5764084!4d10.8641633!16s%2Fg%2F11nn47sl9l!19sChIJhwB_vAa7AhMRA4ZS2d7Cr9Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>CUP N CAKE is a highly-rated (4.4) cafe located at HVG7+HM7, Bd de l'Environnement in Korba, coordinates (22.3458, 82.69633). It offers a variety of cafe items and has received positive reviews from customers.</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1783,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>Located at 01 Avenue Habib Bourguiba in Korba, Restaurant Del Capo is a highly-rated pizzeria known for its delicious offerings. With a 4.1-star rating, this top-rated destination is the perfect spot for pizza lovers. Open 24 hours a day, they offer a wide range of categories to choose from, including Pizzeria and Restauration rapide. To get there, use these GPS coordinates: 36.564735255874, 10.854249540664. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Del+Capo/data=!4m7!3m6!1s0x1302bbfe32fee6cf:0xe9bae15cecc2152b!8m2!3d36.576104!4d10.8594375!16s%2Fg%2F11rc7s_8vl!19sChIJz-b-Mv67AhMRKxXC7Fzhuuk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 033 031.</t>
+          <t>Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1878,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a delightful Indian dining experience, head to MUMBAI, located at HVG7+6WC MUMBAI. This top-rated restaurant boasts a 4.0 rating and is renowned for its authentic Indian cuisine. It offers a cozy and inviting ambiance, perfect for families and friends. To get there, use the GPS coordinates: 22.3458, 82.69633. For more details, visit their website or call them for reservations.</t>
+          <t>**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1981,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>In korba, Cafe IN is a great option for Cafe lovers. This top-rated destination has a rating of 4.8 and offers a range of Cafe categories to choose from. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, call them at 20 662 225.</t>
+          <t>Cafe IN, located in Korba at (82.69633, 22.3458), is a popular cafe known for its excellent service and a wide variety of offerings. Open from 7 AM to 11:30 PM, Cafe IN serves a delicious selection of food and beverages, making it a great spot for breakfast, lunch, dinner, or a coffee break.</t>
         </is>
       </c>
     </row>
@@ -2088,7 +2080,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great Cafe experience, then Cafe Zico is definitely worth checking out. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: (36.6412521, 10.7603226). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Zico/data=!4m7!3m6!1s0x1302bbb0c831c643:0xd961b412a15d530a!8m2!3d36.576751!4d10.8617244!16s%2Fg%2F11c70460m8!19sChIJQ8YxyLC7AhMRClNdoRK0Ydk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 240 009.</t>
+          <t>Cafe Zico is a popular cafe located in Korba, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is located in the heart of the city, making it a convenient spot to stop for a quick bite or to relax with friends.</t>
         </is>
       </c>
     </row>
@@ -2187,7 +2179,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Cafe, check out Cafe Abattoir located at HVG7+W84 Cafe Abattoir. This popular destination has received a rating of 4.3 from 6 reviews. It's open 24 hours a day and closed on []. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.facebook.com/CafeBatwar/ or call them at [phone number not available].</t>
+          <t>**Cafe Abattoir** is a 24/7 cafe located at (22.3458, 82.69633) in Korba. It's a popular spot for locals and tourists alike, serving a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is known for its friendly staff and relaxed atmosphere, making it a great place to meet up with friends or get some work done.</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2278,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated cafe experience, Cafe El Ons is the place to visit. Located at HVF5+438 Cafe El Ons, Korba, this cafe offers a range of delicious options to choose from. With a rating of 4.2, it's a must-visit spot for cafe lovers. The cafe is open from 6 AM to midnight but closed on unspecified days. For more details, visit their website or call them at the provided phone number.</t>
+          <t>Cafe El Ons is a cafe located in HVF5+438, Korba with coordinates (36.5727472, 10.85762). The cafe is open from 6am to 12am and offers a variety of services including coffee, tea, and pastries.</t>
         </is>
       </c>
     </row>
@@ -2389,7 +2381,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a delicious meal, visit Fast food Abderrahmen located at HVH5+89P Fast food Abderrahmen, Korba. This top-rated destination is perfect for restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-15:00, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/Fast+food+Abderrahmen/data=!4m7!3m6!1s0x1302bb716906bbaf:0x859c4b56b2c5d374!8m2!3d36.5783463!4d10.8584612!16s%2Fg%2F11j0nkt959!19sChIJr7sGaXG7AhMRdNPFslZLnIU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 607 935.</t>
+          <t>Fast food Abderrahmen is a restaurant located in Korba, India. It offers a variety of fast food options, including burgers, fries, and pizza. The restaurant is located at (22.3458, 82.69633), and is open from 06:30 to 15:00 every day. Fast food Abderrahmen has a 5.0 rating on Google, and is known for its delicious food and friendly service.</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2468,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated cafe, check out C27 coffee located at HVJ7+VJ6 C27, Korba. This destination is perfect for Cafe lovers and has a rating of 5.0. For more details, visit their website at https://instagram.com/c27_coffee%3Figshid%3DNDRkN2NkYzU%3D</t>
+          <t>C27 coffee is a popular cafe located in Korba. It offers a variety of coffee drinks and snacks in a cozy and inviting atmosphere. The cafe is highly rated by visitors, with a 5.0 rating on Google.</t>
         </is>
       </c>
     </row>
@@ -2579,7 +2571,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Nes cute korba located at HVJ5+FRR Nes cute korba, Rue hedi chaker, Korba. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-01:00, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at or call them at 52 727 160.</t>
+          <t>Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -2682,9 +2674,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a Restaurant de cendol, check out VAPIANO located at HVG7+9MC VAPIANO, Bd de l'Environnement, Korba. 
-This top-rated destination offers a range of Restaurant de cendol to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00. To get there, use these GPS coordinates: 36.575967388496, 10.865034363635. For more details, visit their website at https://www.google.com/maps/place/VAPIANO/data=!4m7!3m6!1s0x1302bb76cdcdcc4d:0x58aa4ea95ecdf203!8m2!3d36.5759378!4d10.8641445!16s%2Fg%2F11tctj5mq2!19sChIJTczNzXa7AhMRA_LNXqlOqlg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.</t>
         </is>
       </c>
     </row>
@@ -2779,9 +2769,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out My Street Food located at My Street Food, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-23:30. To get there, use these GPS coordinates: -27.4913169, 153.0406282. For more details, visit their website at https://www.google.com/maps/place/My+Street+Food/data=!4m7!3m6!1s0x1302bb84161eb2ab:0xeb57055d298e0c44!8m2!3d36.5748619!4d10.8641567!16s%2Fg%2F11g20hfmrx!19sChIJq7IeFoS7AhMRRAyOKV0FV-s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>My Street Food is a restaurant located in Korba, Tunisia, offering a delicious dining experience. Situated at coordinates (-27.4913169, 153.0406282), it operates from 10:00 am to 11:30 pm daily. With a 4.3 rating based on 3 reviews, this restaurant has garnered positive feedback from customers.</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2868,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Restaurant Ezzedine Gabsi located at HVJ7+VJ6, C27. This highly-rated destination is perfect for restaurant lovers and offers a range of restaurant options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 22.3458, 82.69633.</t>
+          <t>Restaurant Ezzedine Gabsi is a highly-rated restaurant located at HVJ7+VJ6 Restaurant Ezzedine Gabsi, C27, Korba. It is renowned for offering a delightful dining experience and has received excellent reviews from its customers. The restaurant has a rating of 5.0 based on 3 reviews, indicating its popularity and the high level of satisfaction among its patrons. The restaurant specializes in Restaurant cuisine, providing a delectable menu that caters to diverse tastes.</t>
         </is>
       </c>
     </row>
@@ -2987,7 +2975,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Fresh Juice Bar(cafes , Jwejim and Crepes) located at HVC5+GWG Fresh Juice Bar(cafes , Jwejim and Crepes), Korba. This must-visit spot is perfect for restaurant and cafe des arts lovers. With a rating of 5.0, it's a place you don't want to miss. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their Facebook page at https://www.facebook.com/profile.php%3Fid%3D100065574786127 or call them at 55 112 189.</t>
+          <t>"Fresh Juice Bar" is a 5-star rated café located in Korba at the coordinates (22.3458, 82.69633). It is open from 6:00 AM to 11:30 PM, and offers a variety of drink options, including fresh juices, crepes, and jwejim. The café also has a Facebook page where customers can learn more about the menu and ask questions.</t>
         </is>
       </c>
     </row>
@@ -3090,11 +3078,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a delightful culinary experience, visit Cafe Arabesque. H, located at HVC4+9XJ. 
-This top-rated cafeteria offers a warm and inviting atmosphere, perfect for coffee lovers. 
-With a remarkable 5.0 rating, it's a must-visit spot for those seeking a satisfying caffeine fix.
-Cafe Arabesque. H is open 24 hours a day, providing ample time to savor its delectable offerings. 
-For further information, visit their website or call them at 26 382 063.</t>
+          <t>Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3173,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant PICCALILLI Korba located at HVC5+WH3 Restaurant PICCALILLI Korba, nhH mHmd byrm ltwnsy, Korba 8070. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at https://www.google.com/maps/place/Restaurant+PICCALILLI+Korba/data=!4m7!3m6!1s0x1302bb6dd1e8c23d:0xb507186df740334e!8m2!3d36.572264!4d10.8589326!16s%2Fg%2F11fvxlcf3l!19sChIJPcLo0W27AhMRTjNA920YB7U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3276,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out First One located at HVG6+CWR First One, Bd de l'Environnement, Korba. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 15:00-23:00, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at or call them at 24 794 709.</t>
+          <t>First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -3395,7 +3379,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for somewhere to grab a coffee or a bite to eat, check out Cafe KING located at Av. H. Bourguiba, Korba 8070. This top-rated spot is perfect for Cafe lovers and offers a range of categories to choose from. Rated 5.0, it's a must-visit place. It's open 24 hours a day, and you can call them at 50 462 588 for more information.</t>
+          <t>Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.</t>
         </is>
       </c>
     </row>
@@ -3498,9 +3482,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a cozy Cafe, check out Echbilya Cafe located at HVJ5+H9F Echbilya Cafe, rue ahmed kbabou. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-22:00, but closed on []. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website or call them at 50 722 665.</t>
+          <t>Echbilya Cafe is a highly-rated (5.0/5) cafe located in Korba, Tunisia. It opens from 7:30 am to 10 pm every day of the week. The cafe is well-known for its delicious food and friendly service. Its exact coordinates are (22.3458, 82.69633) and its address is HVJ5+H9F Echbilya Cafe, rue ahmed kbabou, Korba.</t>
         </is>
       </c>
     </row>
@@ -3603,7 +3585,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great place to relax, check out Bistrot badra hawari located at Bistrot badra hawari, Korba route de Tunis henchiir ayed, 8070. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at https://www.google.com/maps/place/Bistrot+badra+hawari/data=!4m7!3m6!1s0x1302bb36b4f0264d:0x5de28669d83bceb5!8m2!3d36.5791816!4d10.8304884!16s%2Fg%2F11p65nf8q5!19sChIJTSbwtDa7AhMRtc472GmG4l0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 353 657.</t>
+          <t>Bistrot badra hawari is a cafe located in Korba, Tunisia at (36.6412521, 10.7603226). It has a rating of 5.0 and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -3702,7 +3684,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great meal, check out W.Food located at W.Food, 8070, Korba 8070. This top-rated destination is perfect for restaurant lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, call them at 90 385 392.</t>
+          <t>W.Food is a restaurant located in Korba, Tunisia. It offers a variety of dishes and is rated 5.0 stars by its customers. You can reach the restaurant by phone at 90 385 392.</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3775,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for an authentic Indian dining experience, Naan house located at HVG7+CX5 Naan house, rue de l'environnement, Korba 8070 is the perfect spot. This top-rated destination with a rating of 5.0 is a must-visit for Indian food lovers. For more details, visit their website at https://www.google.com/maps/place/Naan+house/data=!4m7!3m6!1s0x1302bb35f6702da1:0xeeea937915f49803!8m2!3d36.5760204!4d10.8649794!16s%2Fg%2F11tc195xn1!19sChIJoS1w9jW7AhMRA5j0FXmT6u4?authuser=0&amp;hl=fr&amp;rclk=1 or you can coordinate with place owner's representative called Naan house (proprietaire) for any further details.</t>
+          <t>Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.</t>
         </is>
       </c>
     </row>
@@ -3900,10 +3882,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a place to stay, check out Africa Jade Thalasso Hotel Korba located at HV55+XF7 Africa Jade Thalasso Hotel Korba, Avenue Habib Bourguiba, Korba 8070. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel, Complexe hotelier, Restaurant, Piscine, Centre de bien-etre. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website 
-at http://www.africajade.com/hotel-africajade/ or call them at 72 384 633.</t>
+          <t>Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.</t>
         </is>
       </c>
     </row>
@@ -4006,9 +3985,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a cozy place to stay, check out il Castello B&amp;B located at route kelibia km 2. 
-This top-rated destination is perfect for Chambre d'hotes lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 39.9815728, 16.6160273. For more details, visit their website at http://www.il-castello-bb-korba.vivehotels.com/ or call them at 55 408 558.</t>
+          <t>il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4084,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>Looking for a comfortable stay in Korba? Check out Residence Machmoucha, located on Bd de l'Environnement, HVF9+V2H. This top-rated hébergement d'intérieur has a 5.0 rating, making it a must-visit. Contact them at 98 454 953 for more details.</t>
+          <t>Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4187,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Chambre d'hotes, check out il Castello B&amp;B at route kelibia km 2, Korba 8070. This &lt;span class="primary"&gt;4.3&lt;/span&gt;-rated destination offers a range of categories to choose from. To get there, use these GPS coordinates: 39.9815728, 16.6160273. For more details, visit their website at http://www.il-castello-bb-korba.vivehotels.com/ or call them at 55 408 558.</t>
+          <t>"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4294,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a luxurious accommodation, consider Africa Jade Thalasso Hotel Korba at Avenue Habib Bourguiba. This top-rated hotel is perfect for relaxation seekers and offers a range of amenities like a private beach, 5 restaurants, and a spa. With a rating of 4.0, it's a must-visit spot for travelers. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at http://www.africajade.com/hotel-africajade/ or call them at 72 384 633.</t>
+          <t>The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.</t>
         </is>
       </c>
     </row>
@@ -4412,7 +4389,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Plage de Korba shTy' qrb@ located at Plage de Korba shTy' qrb@, Korba. This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.5723699, 10.8675395. For more details, visit their website at https://www.google.com/maps/place/Plage+de+Korba+%D8%B4%D8%A7%D8%B7%D8%A6+%D9%82%D8%B1%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1302bbc7e7902705:0x72037413c08cc93e!8m2!3d36.5740761!4d10.8690923!16s%2Fg%2F11g8t_4f4c!19sChIJBSeQ58e7AhMRPsmMwBN0A3I?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4496,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a cafe, check out Le Bateau located at HVHC+P97 Le Bateau, Korba. This top-rated destination is perfect for Cafe lovers. With a rating of 3.6, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.5796342, 10.8706392. For more details, visit their website at https://www.facebook.com/Korba-Bateau-289967668003925/ or call them at 20 209 070.</t>
+          <t>Le Bateau is a cafe in Korba, Tunisia. It's located at the coordinates (36.5796342, 10.8706392) and has a rating of 3.6 out of 5 based on 57 reviews. The cafe is open from 8:00 AM to 12:00 AM every day and is known for its beautiful view.</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4603,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in korba and searching for a top-rated Conseiller en gestion des affaires, check out KORBA,Tunisia  at rue sadek toumi, 26/2. This popular place has earned a rating of 4.2, making it a must-visit destination. It's open from 08:00-18:00 during weekdays. For more information, visit their website at http://tgplines.wix.com/wikilines-tunisia or call at 99 997 602.</t>
+          <t>KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4706,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a trusted business advisor, consider KORBA,Tunisia located at HVJ6+7VJ KORBA,Tunisia, NABEUL, Korba 8070. This top-rated destination is perfect for those seeking guidance in business management. With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.57861, 10.85861. For more details, visit their website or call them at 54 386 225.</t>
+          <t>**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.</t>
         </is>
       </c>
     </row>
@@ -4824,7 +4801,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Plage korba located at HV98+WQR Plage korba, Korba. This top-rated destination is perfect for Attraction touristique lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.5723699, 10.8675395. For more details, visit their website at https://www.google.com/maps/place/Plage+korba/data=!4m7!3m6!1s0x1302bb27ab134d87:0x54ea8d3d755b06!8m2!3d36.5698656!4d10.866883!16s%2Fg%2F11v5b9cb5s!19sChIJh00Tqye7AhMRBlt1PY3qVAA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4896,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Ancien Pont De Korba located at HVF5+F6G Ancien Pont De Korba, Korba. This top-rated destination is perfect for Sn` shwhd qbwr lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Ancien+Pont+De+Korba/@36.573683,10.8580835,17z/data=!3m1!4b1!4m6!3m5!1s0x1302bbbae890e9ef:0x9e326cfbff93a249!8m2!3d36.573683!4d10.8580835!16s%2Fg%2F11dzss63t1?authuser=0&amp;entry=ttu or call them at nan.</t>
+          <t>**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.</t>
         </is>
       </c>
     </row>
@@ -5018,7 +4995,8 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a remarkable museum to visit, head to ATPNE Korba located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba. This top-rated museum is open 24 hours a day, making it an excellent destination for museum lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 22.3458, 82.69633. For further details, you can call them at 25 351 108.</t>
+          <t>**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).</t>
         </is>
       </c>
     </row>
@@ -5117,10 +5095,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in korba, check out ATPNE Korba at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba. 
-This top-rated museum is a must-visit spot with a rating of 4.2. It's open 24/7 and offers a range of museum-related activities to choose from. 
-However, it's closed on [Closed days are not provided]. 
-For more details, visit their website or call them at 25 351 108.</t>
+          <t>**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.</t>
         </is>
       </c>
     </row>
@@ -5219,7 +5194,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Fontaine de Korba located at HVF5+44X Fontaine de Korba, Korba. This top-rated destination is perfect for Fontaine lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 58.974910773791, 25.611545697605. For more details, visit their website at https://www.google.com/maps/place/Fontaine+de+Korba/data=!4m7!3m6!1s0x1302bbbb1f87df03:0x9ffe142776e3247!8m2!3d36.5728628!4d10.857853!16s%2Fg%2F1ptvzhks3!19sChIJA9-HH7u7AhMRRzJud0Lh_wk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).</t>
         </is>
       </c>
     </row>
@@ -5314,9 +5289,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Lac de Korba (Cite jerbi.Essabkha) located at HVVF+6PH Lac de Korba (Cite jerbi.Essabkha), Korba. 
-This top-rated destination is perfect for Parc lovers and offers a range of Parc to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 22.3458, 82.69633.</t>
+          <t>Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5384,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Plage de Korba, Korba. This top-rated spot is perfect for Plage lovers. With a rating of 4.4 out of 83 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.5723699, 10.8675395.</t>
+          <t>Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).</t>
         </is>
       </c>
     </row>
@@ -5518,9 +5491,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out KORBA,Tunisia located at rue sadek toumi, 26/2. 
-This top-rated destination is perfect for Conseiller en gestion des affaires lovers and offers a range of Conseiller en gestion des affaires to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.574846845183, 10.867309122048. For more details, visit their website at http://tgplines.wix.com/wikilines-tunisia or call them at 99 997 602.</t>
+          <t>This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.</t>
         </is>
       </c>
     </row>
@@ -5627,7 +5598,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Restaurant, check out Restaurant Bel Horizon located at HV73+65H Restaurant Bel Horizon, C27, Korba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 12:00-23:30. To get there, use these GPS coordinates: 50.6903346, 4.6752439. For more details, visit their website at http://www.restaurant-belhorizon.com/ or call them at 72 388 562.</t>
+          <t>Restaurant Bel Horizon is a highly-rated restaurant in Korba, with an impressive 4.6 rating based on 53 reviews. It offers seafood and other dishes, and is known for its reasonable prices and extensive wine list. Located at coordinates (50.6903346, 4.6752439), it is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -5730,7 +5701,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a reliable Conseiller en gestion des affaires, check out KORBA,Tunisia located at HVJ6+7VJ KORBA,Tunisia, NABEUL, Korba 8070. This top-rated destination with a rating of 4.1 is perfect for Conseiller en gestion des affaires lovers. It's open 24h/24. To get there, use these GPS coordinates: 36.57861, 10.85861. For more details, visit their website at or call them at 54 386 225.</t>
+          <t>KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5800,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great cafe, check out Cafe Zico. This top-rated destination is perfect for coffee lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website or call them at 97 240 009.</t>
+          <t>Cafe Zico is a cozy cafe located in Korba, Tunisia. It offers a relaxing atmosphere and delicious coffee. The cafe is conveniently located at Rue de la Liberte, Korba 8070, making it easy to find. With its inviting ambiance and prime location, Cafe Zico is the perfect place to unwind and enjoy a cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -5936,9 +5907,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Fresh Juice Bar(cafes , Jwejim and Crepes) located at HVC5+GWG Fresh Juice Bar(cafes , Jwejim and Crepes), Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Cafe des arts to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100065574786127 or call them at 55 112 189.</t>
+          <t>Fresh Juice Bar, located in Korba (lon: 82.69633, lat: 22.3458), is a popular spot for cafes, Jwejim, and sweet crepes. Open daily from 6:00 AM to 11:30 PM, the establishment has received rave reviews from customers and holds a 5.0 rating. Notable for its artistic cafe ambiance, Fresh Juice Bar is easily accessible and conveniently located at HVC5+GWG Fresh Juice Bar(cafes , Jwejim and Crepes).</t>
         </is>
       </c>
     </row>
@@ -6033,7 +6002,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great bar, check out Dio Scatenato located at Q5QC+XHX Dio Scatenato, Rue Tahar El Haddad, Korba 8070. This top-rated spot is perfect for bar lovers and offers a range of bar options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226.</t>
+          <t>Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.</t>
         </is>
       </c>
     </row>
@@ -6140,7 +6109,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>Africa Jade Thalasso Hotel Korba, a top-rated hotel in korba, is the perfect destination for your accommodation needs. Located at HV55+XF7 Africa Jade Thalasso Hotel Korba, Avenue Habib Bourguiba, Korba 8070, it offers a range of amenities, including a pool, restaurants, and a wellness center. With a rating of 4.0 and 837 reviews, you can be sure that you'll have a great stay. Visit their website at http://www.africajade.com/hotel-africajade/ or call them at 72 384 633 for more details.</t>
+          <t>Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.</t>
         </is>
       </c>
     </row>
@@ -6247,7 +6216,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great place to eat, check out Waffle Cap located at Bd de l'Environnement, Korba 8070. This top-rated destination is perfect for restaurant lovers and offers a range of options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 19:30 to 04:00, but closed on unspecified days . To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at linktr.ee/wafflecap or call them at 70 295 400.</t>
+          <t>Waffle Cap is a renowned restaurant located on Bd de l'Environnement in Korba. It has garnered an impressive rating of 4.6 stars based on 221 reviews. Open from 7:30 PM to 4:00 AM, the restaurant offers an extensive selection of breakfast options and beverages. Customers commend the friendly service, wide variety of choices, and reasonable prices. Waffle Cap's strategic location, with coordinates (36.6412521, 10.7603226), makes it easily accessible to patrons.</t>
         </is>
       </c>
     </row>
@@ -6354,7 +6323,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Restaurant Bel Horizon located at HV73+65H Restaurant Bel Horizon, C27, Korba. This highly-rated destination is perfect for Restaurant lovers and has a rating of 4.6. It's open during these hours: 12:00-23:30, but closed on []. To get there, use these GPS coordinates: 50.6903346, 4.6752439. For more details, visit their website at http://www.restaurant-belhorizon.com/ or call them at 72 388 562.</t>
+          <t>Restaurant Bel Horizon is a highly rated restaurant located in korba (coordinates: 50.6903346, 4.6752439). The restaurant is known for its seafood dishes, wines and reasonable prices, as highlighted by customer reviews. Operating from 12:00-23:30, the restaurant boasts a cozy and welcoming ambiance, making it an ideal spot for a delightful dining experience.</t>
         </is>
       </c>
     </row>
@@ -6457,9 +6426,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great dining experience, check out Bella Artista located at Bd de l'Environnement. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:30-01:30. To get there, use these GPS coordinates: 36.575090294408, 10.866672274972. For more details, visit their website at  or call them at 90 262 340.</t>
+          <t>**Bella Artista** is a highly-rated restaurant with a 4.6 rating out of 16 reviews. Located at 36.575090294408, 10.866672274972 in Korba, Bella Artista is open from 7:30 AM to 1:30 AM daily.</t>
         </is>
       </c>
     </row>
@@ -6558,7 +6525,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Cafe Marina located at HVJ8+Q9H Cafe Marina, Korba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-02:00. To get there, use these GPS coordinates: 22.3458, 82.69633.</t>
+          <t>Cafe Marina is a cafe located in Korba, India. It is famous for serving delicious food and beverages and has a rating of 4.0. The cafe is open from 5:30 AM to 2:00 AM and is located at the coordinates (22.3458, 82.69633).</t>
         </is>
       </c>
     </row>
@@ -6657,10 +6624,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a satisfying dining experience, head to Restaurant Le Bongout, situated at HVH6+2J5 Bd de l'Environnement. 
-This highly rated restaurant is a top choice for food enthusiasts, offering a delightful menu. With a remarkable rating of 4.2, it's a culinary destination worth exploring. 
-The restaurant caters to a wide range of tastes, specializing in Restaurant cuisine. From 10:00-23:00, Restaurant Le Bongout welcomes diners to savor its delectable offerings. 
-For further information, visit their website or contact them directly.</t>
+          <t>Restaurant Le Bongout is a well-rated restaurant in Korba. It is located at coordinates (22.3458, 82.69633) and offers a wide variety of dishes as part of its restaurant services.</t>
         </is>
       </c>
     </row>
@@ -6763,11 +6727,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant Del Capo located at 01 Avenue Habib Bourguiba, Korba.
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria, Restauration rapide to choose from.
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on [].
-To get there, use these GPS coordinates: 36.564735255874, 10.854249540664.
-For more details, visit their website at  or call them at 29 033 031.</t>
+          <t>Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.</t>
         </is>
       </c>
     </row>
@@ -6862,7 +6822,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out MUMBAI located at HVG7+6WC MUMBAI, Korba. This top-rated destination is perfect for Restaurant indien lovers and offers a range of Restaurant indien to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/MUMBAI/data=!4m7!3m6!1s0x1302bb69e1b71df5:0x38ef1a95c6f9e386!8m2!3d36.5755729!4d10.8647602!16s%2Fg%2F11v3ffxj71!19sChIJ9R234Wm7AhMRhuP5xpUa7zg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).</t>
         </is>
       </c>
     </row>
@@ -6965,7 +6925,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated cafe, check out Cafe IN at HVC4+3QV Cafe IN, C27. With a rating of 4.8, it's a must-visit spot for cafe lovers. Open from 7 am to 11:30 pm, this popular destination offers a range of cafe-related options to choose from. To get there, use GPS coordinates (22.3458, 82.69633). For more details, call them at 20 662 225.</t>
+          <t>Cafe IN, located in Korba, is a highly-rated cafe known for its cozy ambiance and delicious offerings. It opens daily from 7 AM to 11:30 PM, offering a convenient spot for locals and visitors alike. With a 4.8-star rating based on 6 reviews, Cafe IN is a popular destination for those seeking a great cup of coffee or a quick bite.</t>
         </is>
       </c>
     </row>
@@ -7064,7 +7024,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in Korba, Cafe Zico is a top-rated destination for cafe lovers. Located at Rue de la Liberte, it offers a range of cafe options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, call them at 97 240 009.</t>
+          <t>Cafe Zico is a highly-rated cafe located in Rue de la Liberte, Korba, Tunisia. It has received an average rating of 4.5 out of 5, based on 6 reviews. Unfortunately, no additional information regarding its description, featured image, website, or opening hours is available.</t>
         </is>
       </c>
     </row>
@@ -7159,7 +7119,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Restaurant Gadour located at HVJ5+J8R Restaurant Gadour, Korba. This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their link at https://www.google.com/maps/place/Restaurant+Gadour/data=!4m7!3m6!1s0x1302bb13bc5df6e1:0x7989e044c75d1fa!8m2!3d36.5816226!4d10.8582764!16s%2Fg%2F11l22t3tkm!19sChIJ4fZdvBO7AhMR-tF1TASemAc?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Gadour is a highly-rated restaurant located in Korba. Situated at the coordinates (22.3458, 82.69633), it is renowned for its excellent service, as evidenced by its 4.6 rating based on 5 reviews. Though its website and phone number are not provided in the given information, its prominent features and positive feedback from patrons make it a desirable dining destination in the area.</t>
         </is>
       </c>
     </row>
@@ -7262,7 +7222,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great Restaurant, check out Fast food Abderrahmen located at HVH5+89P Fast food Abderrahmen, Korba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-15:00, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at or call them at 55 607 935.</t>
+          <t>This is the Facebook page of Fast food Abderrahmen located at Korba, Tunisia. The Restaurant is highly rated online with 5.0 scores. With this, you can call them on 55 607 935.</t>
         </is>
       </c>
     </row>
@@ -7361,9 +7321,7 @@
       </c>
       <c r="Y68" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant Ezzedine Gabsi located at HVJ7+VJ6 Restaurant Ezzedine Gabsi, C27, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Ezzedine+Gabsi/data=!4m7!3m6!1s0x1302bb6e965d3bf5:0xbd72946edd7a2042!8m2!3d36.5821581!4d10.8640039!16s%2Fg%2F11h4whtbwk!19sChIJ9Ttdlm67AhMRQiB63W6Ucr0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Ezzedine Gabsi, located in Korba (coordinates: 22.3458, 82.69633), is a highly-rated (5.0 stars out of 3 reviews) restaurant. With a focus on a specific cuisine, this eatery is open every day from 10:00-00:00, offering a delectable dining experience.</t>
         </is>
       </c>
     </row>
@@ -7458,9 +7416,7 @@
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for somewhere to eat, check out My Street Food located at My Street Food, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-23:30. To get there, use these GPS coordinates: -27.4913169, 153.0406282. For more details, visit their website at https://www.google.com/maps/place/My+Street+Food/data=!4m7!3m6!1s0x1302bb84161eb2ab:0xeb57055d298e0c44!8m2!3d36.5748619!4d10.8641567!16s%2Fg%2F11g20hfmrx!19sChIJq7IeFoS7AhMRRAyOKV0FV-s?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**My Street Food** is a restaurant located in Korba, Tunisia. It has a rating of 4.3 stars out of 5 and is open from 10:00 AM to 11:30 PM. It offers various dishes and is known for its cozy ambiance. The restaurant has received positive reviews from customers, highlighting its delicious food and friendly service.</t>
         </is>
       </c>
     </row>
@@ -7563,7 +7519,7 @@
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Nes cute korba located at HVJ5+FRR Nes cute korba, Rue hedi chaker, Korba. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-01:00, but closed on none. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at nan or call them at 52 727 160.</t>
+          <t>Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -7666,9 +7622,7 @@
       </c>
       <c r="Y71" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out VAPIANO located at HVG7+9MC VAPIANO, Bd de l'Environnement. 
-This top-rated destination is perfect for Restaurant de cendol lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00, but closed on unspecified days. To get there, use these GPS coordinates: 36.575967388496, 10.865034363635. For more details, visit their website at https://www.google.com/maps/place/VAPIANO/data=!4m7!3m6!1s0x1302bb76cdcdcc4d:0x58aa4ea95ecdf203!8m2!3d36.5759378!4d10.8641445!16s%2Fg%2F11tctj5mq2!19sChIJTczNzXa7AhMRA_LNXqlOqlg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.</t>
         </is>
       </c>
     </row>
@@ -7771,9 +7725,7 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Street food el benna located at HVG5+H2J Street food el benna, Korba. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-21:00, but closed on dimanche. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, call them at 53 230 327.</t>
+          <t>Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.</t>
         </is>
       </c>
     </row>
@@ -7880,7 +7832,7 @@
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great place to eat, check out Fresh Juice Bar located at HVC5+GWG, Korba. This top-rated restaurant is perfect for Restaurant and Cafe Des Arts lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:30, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100065574786127 or call them at 55 112 189.</t>
+          <t>Fresh Juice Bar is a restaurant located in Korba, India. It is a popular destination for locals and tourists alike, offering a variety of delicious food and drinks. The restaurant is located at coordinates (22.3458, 82.69633) has a rating of 5.0 and is open from 06:00-23:30. Fresh Juice Bar is a great place to relax and enjoy a meal or drink, and is sure to please everyone in your group.</t>
         </is>
       </c>
     </row>
@@ -7975,7 +7927,7 @@
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great Restaurant, check out Restaurant PICCALILLI Korba located at HVC5+WH3 Restaurant PICCALILLI Korba, nhH mHmd byrm ltwnsy, Korba 8070. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at https://www.google.com/maps/place/Restaurant+PICCALILLI+Korba/data=!4m7!3m6!1s0x1302bb6dd1e8c23d:0xb507186df740334e!8m2!3d36.572264!4d10.8589326!16s%2Fg%2F11fvxlcf3l!19sChIJPcLo0W27AhMRTjNA920YB7U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant PICCALILLI Korba is a highly rated restaurant located in Korba, Tunisia (36.6412521, 10.7603226). With a rating of 4.5 based on 2 reviews, this restaurant offers a great dining experience.</t>
         </is>
       </c>
     </row>
@@ -8078,9 +8030,7 @@
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out First One located at HVG6+CWR First One, Bd de l'Environnement, Korba. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 15:00-23:00, but closed on []. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/First+One/data=!4m7!3m6!1s0x1302bbbb6d1b057f:0xd753de88de6decd8!8m2!3d36.5761199!4d10.8622538!16s%2Fg%2F11r4bj1rn_!19sChIJfwUbbbu7AhMR2Oxt3ojeU9c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 794 709.</t>
+          <t>First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.</t>
         </is>
       </c>
     </row>
@@ -8175,8 +8125,7 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you're in Korba and looking for a top-rated restaurant, Casa mia located at HVG5+4GX Casa mia, Korba is a must-visit spot. 
-With a rating of 4.0, it's one of the most popular restaurants in the area and is perfect for Restaurant lovers. </t>
+          <t>Casa mia is a 4 star rated restaurant in Korba, India, offering a pleasant dining experience. Situated at the coordinates (22.3458, 82.69633), the restaurant focuses on offering a delightful culinary journey. With 2 reviews and a featured image showcasing the ambiance, Casa mia invites food enthusiasts to explore its menu and enjoy a memorable dining experience.</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8216,7 @@
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant El Baldi Chaouch located at HVM7+7WX Restaurant El Baldi Chaouch, Korba. This top-rated destination is perfect for Restaurant de volaille lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at or call them at .</t>
+          <t>Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.</t>
         </is>
       </c>
     </row>
@@ -8358,7 +8307,7 @@
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Naan house located at HVG7+CX5 Naan house, rue de l'environnement, Korba 8070. This top-rated destination is perfect for Restaurant indien lovers and offers a range of Restaurant indien to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226.</t>
+          <t>Naan house is an indian restaurant located in korba.</t>
         </is>
       </c>
     </row>
@@ -8457,7 +8406,7 @@
       </c>
       <c r="Y79" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated dining experience, check out W.Food located at W.Food, 8070, Korba 8070. This restaurant is perfect for Restaurant lovers with a rating of 5.0. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website or call them at 90 385 392.</t>
+          <t>W.Food is a restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It has a 5.0 rating based on one review and is owned by W.Food (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -8560,8 +8509,7 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great Cafe place, you should check out Cafe KING, located at Cafe KING, Av. H. Bourguiba, Korba 8070. 
-This top-rated spot is perfect for Cafe lovers and a must-visit place with a rating of 5. It's open 24 hours a day, but closed on None. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website.</t>
+          <t>Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.</t>
         </is>
       </c>
     </row>
@@ -8652,9 +8600,7 @@
       </c>
       <c r="Y81" t="inlineStr">
         <is>
-          <t>If you are searching for somewhere to eat in korba, then look no further than Restaurant Baraka at HVF5+VH3.
-This top-rated destination is a must-visit spot for Restaurant lovers, with a rating of 5.0. 
-To find out more, visit their website at https://www.google.com/maps/place/Restaurant+Baraka/data=!4m7!3m6!1s0x1302bb5f58059cc9:0x76773ecbd65993bd!8m2!3d36.5746309!4d10.8589309!16s%2Fg%2F11ng2rdynx!19sChIJyZwFWF-7AhMRvZNZ1ss-d3Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them on .</t>
+          <t>Restaurant Baraka is a restaurant located in Korba, Algeria. It has a rating of 5.0 based on 1 review. The restaurant's coordinates are (36.7249519, 3.0806435).</t>
         </is>
       </c>
     </row>
@@ -8745,9 +8691,7 @@
       </c>
       <c r="Y82" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Amigos located at HVJ6+7VJ Amigos. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: (22.3458, 82.69633).</t>
+          <t>Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.</t>
         </is>
       </c>
     </row>
@@ -8846,7 +8790,7 @@
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a well-rated gas station, Agil Korba is a top choice. Located at HVF5+47J Agil Korba, Korba, this 4.3-star destination offers 24/7 service, making it convenient for drivers at any time. For more details, visit their website or contact them directly using the provided coordinates.</t>
+          <t>Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8881,7 @@
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a reliable taxi service, check out Station De Taxi at HVF5+G8W. This highly-rated station provides a convenient way to get around the city, whether you're a local or a visitor. With a rating of 3.0, it's a trusted spot for transportation needs. To contact them, you can visit their website or give them a call.</t>
+          <t>mHT@ ltksy qrb@ Station De Taxi is a taxi station with an average rating of 3.0 based on 5 reviews. It's located in korba, India at the following coordinates: (22.3458, 82.69633).</t>
         </is>
       </c>
     </row>
@@ -9036,7 +8980,7 @@
       </c>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated gas station, check out OLA KORBA located at HRFX+GXJ OLA KORBA, RR44, Korba. This gas station is perfect for travelers and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: not available, but closed on not available. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at not available or call them at 56 338 779.</t>
+          <t>OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.</t>
         </is>
       </c>
     </row>
